--- a/Proyecto II - XTECDigital.xlsx
+++ b/Proyecto II - XTECDigital.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C310D9-08AF-4C24-9BDA-CACF7199893A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D9D487-5959-4E14-A7DF-6A607DA25E4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="585" windowWidth="21570" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -436,6 +436,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -779,7 +785,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,7 +956,7 @@
       <c r="A12" s="8">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="18">
@@ -967,7 +973,7 @@
       <c r="A13" s="8">
         <v>9</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="13">
@@ -984,7 +990,7 @@
       <c r="A14" s="8">
         <v>10</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="10">

--- a/Proyecto II - XTECDigital.xlsx
+++ b/Proyecto II - XTECDigital.xlsx
@@ -1,26 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D9D487-5959-4E14-A7DF-6A607DA25E4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A137035-F3EB-422B-BDD6-D6DD15831E90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="585" windowWidth="21570" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -462,7 +452,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -784,11 +774,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="53.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
@@ -830,7 +820,7 @@
       </c>
       <c r="D4" s="8">
         <f>SUM(D5:D61)</f>
-        <v>71.5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -946,7 +936,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>60</v>
@@ -1022,7 +1012,7 @@
         <v>0.5</v>
       </c>
       <c r="D16" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>61</v>
@@ -1039,7 +1029,7 @@
         <v>0.5</v>
       </c>
       <c r="D17" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
         <v>61</v>
@@ -1056,7 +1046,7 @@
         <v>0.5</v>
       </c>
       <c r="D18" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
         <v>61</v>
@@ -1073,7 +1063,7 @@
         <v>0.5</v>
       </c>
       <c r="D19" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
@@ -1098,7 +1088,7 @@
         <v>0.5</v>
       </c>
       <c r="D21" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
         <v>61</v>
@@ -1161,7 +1151,7 @@
         <v>0.5</v>
       </c>
       <c r="D26" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>61</v>
@@ -1178,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>61</v>
@@ -1275,7 +1265,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
         <v>61</v>
@@ -1358,7 +1348,7 @@
         <v>0.5</v>
       </c>
       <c r="D42" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1372,7 +1362,7 @@
         <v>0.5</v>
       </c>
       <c r="D43" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1386,7 +1376,7 @@
         <v>0.5</v>
       </c>
       <c r="D44" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1400,7 +1390,7 @@
         <v>4.5</v>
       </c>
       <c r="D45" s="10">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E45" s="21"/>
     </row>

--- a/Proyecto II - XTECDigital.xlsx
+++ b/Proyecto II - XTECDigital.xlsx
@@ -3,14 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A137035-F3EB-422B-BDD6-D6DD15831E90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBC7EAE-4672-4CDA-B4FB-B4BAFD38F47B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -380,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -396,9 +407,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -406,9 +414,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -417,9 +422,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -432,6 +434,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -452,7 +460,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -774,11 +782,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="53.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
@@ -820,17 +828,17 @@
       </c>
       <c r="D4" s="8">
         <f>SUM(D5:D61)</f>
-        <v>56</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>3</v>
       </c>
       <c r="D5" s="8">
@@ -844,10 +852,10 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>3</v>
       </c>
       <c r="D6" s="8">
@@ -861,10 +869,10 @@
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>3</v>
       </c>
       <c r="D7" s="8">
@@ -878,10 +886,10 @@
       <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>3</v>
       </c>
       <c r="D8" s="8">
@@ -895,10 +903,10 @@
       <c r="A9" s="8">
         <v>5</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>1</v>
       </c>
       <c r="D9" s="8">
@@ -912,10 +920,10 @@
       <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>1</v>
       </c>
       <c r="D10" s="8">
@@ -929,14 +937,14 @@
       <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>10</v>
       </c>
       <c r="D11" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
         <v>60</v>
@@ -946,10 +954,10 @@
       <c r="A12" s="8">
         <v>8</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="16">
         <v>3</v>
       </c>
       <c r="D12" s="8">
@@ -963,10 +971,10 @@
       <c r="A13" s="8">
         <v>9</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>5</v>
       </c>
       <c r="D13" s="8">
@@ -980,13 +988,13 @@
       <c r="A14" s="8">
         <v>10</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="10">
-        <v>3</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="C14" s="9">
+        <v>3</v>
+      </c>
+      <c r="D14" s="9">
         <v>3</v>
       </c>
       <c r="E14" t="s">
@@ -999,54 +1007,54 @@
         <v>13</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>11</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="8">
         <v>0.5</v>
       </c>
-      <c r="D16" s="10">
-        <v>0</v>
+      <c r="D16" s="9">
+        <v>0.5</v>
       </c>
       <c r="E16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>12</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0</v>
+      <c r="C17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.5</v>
       </c>
       <c r="E17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>13</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0</v>
+      <c r="C18" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.5</v>
       </c>
       <c r="E18" t="s">
         <v>61</v>
@@ -1056,14 +1064,14 @@
       <c r="A19" s="8">
         <v>14</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0</v>
+      <c r="C19" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.5</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
@@ -1071,23 +1079,23 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>15</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="10">
+      <c r="C21" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="9">
         <v>0</v>
       </c>
       <c r="E21" t="s">
@@ -1095,62 +1103,62 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>16</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="10">
-        <v>1</v>
-      </c>
-      <c r="D22" s="10"/>
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>17</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>5</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>18</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>5</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <v>19</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D26" s="10">
+      <c r="C26" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="9">
         <v>0</v>
       </c>
       <c r="E26" t="s">
@@ -1161,13 +1169,13 @@
       <c r="A27" s="8">
         <v>20</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>2</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>0</v>
       </c>
       <c r="E27" t="s">
@@ -1175,96 +1183,96 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <v>21</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="10">
-        <v>1</v>
-      </c>
-      <c r="D28" s="10"/>
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>22</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <v>1.5</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="A30" s="9">
         <v>23</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>2</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>24</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <v>0</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="A32" s="9">
         <v>25</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <v>1.5</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>26</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>1.5</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="A35" s="9">
         <v>27</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D35" s="10">
+      <c r="C35" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="9">
         <v>0</v>
       </c>
       <c r="E35" t="s">
@@ -1272,52 +1280,52 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+      <c r="A36" s="9">
         <v>28</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="10">
-        <v>1</v>
-      </c>
-      <c r="D36" s="10"/>
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
+      <c r="A37" s="9">
         <v>29</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="9">
         <v>1.5</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+      <c r="A38" s="9">
         <v>30</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <v>1.5</v>
       </c>
-      <c r="D38" s="10"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+      <c r="A39" s="9">
         <v>31</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="10">
-        <v>1</v>
-      </c>
-      <c r="D39" s="10"/>
+      <c r="C39" s="9">
+        <v>1</v>
+      </c>
+      <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
@@ -1331,68 +1339,68 @@
       <c r="A41" s="8">
         <v>32</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="8"/>
-      <c r="D41" s="10"/>
+      <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>33</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C42" s="8">
         <v>0.5</v>
       </c>
-      <c r="D42" s="10">
-        <v>0</v>
+      <c r="D42" s="9">
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>34</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C43" s="8">
         <v>0.5</v>
       </c>
-      <c r="D43" s="10">
-        <v>0</v>
+      <c r="D43" s="9">
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>35</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C44" s="8">
         <v>0.5</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>36</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="D45" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
-        <v>36</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="D45" s="10">
-        <v>0</v>
-      </c>
-      <c r="E45" s="21"/>
+      <c r="E45" s="18"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
@@ -1406,7 +1414,7 @@
       <c r="A47" s="8">
         <v>37</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C47" s="8">
@@ -1420,7 +1428,7 @@
       <c r="A48" s="8">
         <v>38</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C48" s="8">
@@ -1434,7 +1442,7 @@
       <c r="A49" s="8">
         <v>39</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C49" s="8">
@@ -1453,30 +1461,30 @@
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="13">
+      <c r="A51" s="12">
         <v>40</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="12">
         <v>3</v>
       </c>
       <c r="D51" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E51" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="13">
+      <c r="A52" s="12">
         <v>41</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="12">
         <v>3</v>
       </c>
       <c r="D52" s="8">
@@ -1487,13 +1495,13 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
+      <c r="A53" s="12">
         <v>42</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="12">
         <v>3</v>
       </c>
       <c r="D53" s="8">
@@ -1504,13 +1512,13 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
+      <c r="A54" s="12">
         <v>43</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="12">
         <v>1</v>
       </c>
       <c r="D54" s="8">
@@ -1521,78 +1529,78 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
+      <c r="A55" s="12">
         <v>44</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="13">
         <v>2</v>
       </c>
       <c r="D55" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E55" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
+      <c r="A56" s="12">
         <v>45</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C56" s="8">
         <v>2</v>
       </c>
       <c r="D56" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="13">
+      <c r="A57" s="12">
         <v>46</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C57" s="8">
         <v>1</v>
       </c>
       <c r="D57" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E57" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
+      <c r="A58" s="12">
         <v>47</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="8">
         <v>1</v>
       </c>
       <c r="D58" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E58" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="13">
+      <c r="A59" s="12">
         <v>48</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="8">
@@ -1606,10 +1614,10 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
+      <c r="A60" s="12">
         <v>49</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C60" s="8">
@@ -1623,10 +1631,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="13">
+      <c r="A61" s="12">
         <v>50</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C61" s="8">

--- a/Proyecto II - XTECDigital.xlsx
+++ b/Proyecto II - XTECDigital.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Documentos\TEC\Bases de Datos\XTECVegetal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B382F9-366D-49E4-AED0-C39B893C8643}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,76 +36,76 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
-    <t xml:space="preserve">Evaluacion XTecDigital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grupo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parte 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de Datos (En SQLServer)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelo Conceptual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelo Relacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Script de creacion de la Base de Datos</t>
+    <t>Evaluacion XTecDigital</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Parte 1</t>
+  </si>
+  <si>
+    <t>Base de Datos (En SQLServer)</t>
+  </si>
+  <si>
+    <t>Modelo Conceptual</t>
+  </si>
+  <si>
+    <t>TODOS</t>
+  </si>
+  <si>
+    <t>Modelo Relacional</t>
+  </si>
+  <si>
+    <t>Script de creacion de la Base de Datos</t>
   </si>
   <si>
     <t xml:space="preserve">Script de populacion de la Base de Datos </t>
   </si>
   <si>
-    <t xml:space="preserve">Uso de llaves primarias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso de llaves foraneas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Procedimientos (4), Triggers (3) y Vistas (3)</t>
+    <t>Uso de llaves primarias</t>
+  </si>
+  <si>
+    <t>Uso de llaves foraneas</t>
+  </si>
+  <si>
+    <t>Procedimientos (4), Triggers (3) y Vistas (3)</t>
   </si>
   <si>
     <t xml:space="preserve">Justificación de la tercer forma  normal </t>
   </si>
   <si>
-    <t xml:space="preserve">Base de datos en MongoDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sincronización de Pacientes MongoDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso de Angular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARZA/ELIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso de bootstrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso de HTML5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso de Css</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vista Administrador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestión de Cursos</t>
+    <t>Base de datos en MongoDB</t>
+  </si>
+  <si>
+    <t>Sincronización de Pacientes MongoDB</t>
+  </si>
+  <si>
+    <t>Web Page</t>
+  </si>
+  <si>
+    <t>Uso de Angular</t>
+  </si>
+  <si>
+    <t>GARZA/ELIAS</t>
+  </si>
+  <si>
+    <t>Uso de bootstrap</t>
+  </si>
+  <si>
+    <t>Uso de HTML5</t>
+  </si>
+  <si>
+    <t>Uso de Css</t>
+  </si>
+  <si>
+    <t>Vista Administrador</t>
+  </si>
+  <si>
+    <t>Log In</t>
+  </si>
+  <si>
+    <t>Gestión de Cursos</t>
   </si>
   <si>
     <r>
@@ -106,14 +120,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(Semestre-Cursos-EstudiantesMatriculados-</t>
+      <t>(Semestre-Cursos-EstudiantesMatriculados-</t>
     </r>
     <r>
       <rPr>
@@ -123,37 +137,37 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Secciones</t>
+      <t>Secciones</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">-Carpetas-Evaluaciones)</t>
+      <t>-Carpetas-Evaluaciones)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Inicializar Semestre desde un excel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vista Profesor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion de Documentos (Carpetas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestión de Rubros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asignar Evaluación (Subir especificación)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluar Entregables (Descargar - Postear noticia)</t>
+    <t>Inicializar Semestre desde un excel</t>
+  </si>
+  <si>
+    <t>Vista Profesor</t>
+  </si>
+  <si>
+    <t>Gestion de Documentos (Carpetas)</t>
+  </si>
+  <si>
+    <t>Gestión de Rubros</t>
+  </si>
+  <si>
+    <t>Asignar Evaluación (Subir especificación)</t>
+  </si>
+  <si>
+    <t>Evaluar Entregables (Descargar - Postear noticia)</t>
   </si>
   <si>
     <r>
@@ -168,14 +182,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(Debe existir la tabla y la visualización de noticias en la vista estudiante pero no hay un mantenimiento)</t>
+      <t>(Debe existir la tabla y la visualización de noticias en la vista estudiante pero no hay un mantenimiento)</t>
     </r>
     <r>
       <rPr>
@@ -189,125 +203,107 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Reporte de Notas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reporte de Estudiantes Matriculados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vista Estudiante</t>
+    <t>Reporte de Notas</t>
+  </si>
+  <si>
+    <t>Reporte de Estudiantes Matriculados</t>
+  </si>
+  <si>
+    <t>Vista Estudiante</t>
   </si>
   <si>
     <t xml:space="preserve">Visualizar Documentos </t>
   </si>
   <si>
-    <t xml:space="preserve">Enviar Evaluaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reporte de notas del curso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualizar Noticias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web API- WebService</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementacion en C# ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementacion AWS/Azure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defensa (10%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preparacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiempo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defensa(Preguntas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentacion y Otros (20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual de Usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual de Instalacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción/Diagrama de Arquitectura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentacion Interna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de las estructuras de datos (Tablas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de los SP y Triggers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problemas conocidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problemas encontrados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso de Manejador de Codigo</t>
+    <t>Enviar Evaluaciones</t>
+  </si>
+  <si>
+    <t>Reporte de notas del curso</t>
+  </si>
+  <si>
+    <t>Visualizar Noticias</t>
+  </si>
+  <si>
+    <t>Web API- WebService</t>
+  </si>
+  <si>
+    <t>Implementacion en C# ***</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Implementacion AWS/Azure</t>
+  </si>
+  <si>
+    <t>Defensa (10%)</t>
+  </si>
+  <si>
+    <t>Preparacion</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>Defensa(Preguntas)</t>
+  </si>
+  <si>
+    <t>Documentacion y Otros (20%)</t>
+  </si>
+  <si>
+    <t>Manual de Usuario</t>
+  </si>
+  <si>
+    <t>SING</t>
+  </si>
+  <si>
+    <t>Manual de Instalacion</t>
+  </si>
+  <si>
+    <t>Descripción/Diagrama de Arquitectura</t>
+  </si>
+  <si>
+    <t>Documentacion Interna</t>
+  </si>
+  <si>
+    <t>Descripción de las estructuras de datos (Tablas)</t>
+  </si>
+  <si>
+    <t>Descripción de los SP y Triggers</t>
+  </si>
+  <si>
+    <t>Problemas conocidos</t>
+  </si>
+  <si>
+    <t>Problemas encontrados</t>
+  </si>
+  <si>
+    <t>Uso de Manejador de Codigo</t>
   </si>
   <si>
     <t xml:space="preserve">Conclusiones y Recomendaciones </t>
   </si>
   <si>
-    <t xml:space="preserve">Bibliografía</t>
+    <t>Bibliografía</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -317,7 +313,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -332,7 +328,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -346,7 +342,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,168 +361,124 @@
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -585,30 +537,338 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.85"/>
+    <col min="2" max="2" width="53.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -616,7 +876,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -624,7 +884,7 @@
       <c r="C2" s="7"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -632,191 +892,191 @@
       <c r="C3" s="2"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <f aca="false">SUM(C5:C61)</f>
+      <c r="C4" s="2">
+        <f>SUM(C5:C61)</f>
         <v>100</v>
       </c>
-      <c r="D4" s="8" t="n">
-        <f aca="false">SUM(D5:D61)</f>
-        <v>56.25</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="D4" s="8">
+        <f>SUM(D5:D61)</f>
+        <v>59.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="C5" s="10">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="C6" s="10">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="C7" s="10">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="C8" s="10">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="s">
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10" t="n">
+      <c r="C11" s="10">
         <v>10</v>
       </c>
-      <c r="D11" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="0" t="s">
+      <c r="D11" s="8">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>8</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" s="0" t="s">
+      <c r="C12" s="13">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="10" t="n">
+      <c r="C13" s="10">
         <v>5</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="8">
         <v>5</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>10</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" s="0" t="s">
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
+      <c r="D14" s="15">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>15</v>
@@ -824,75 +1084,75 @@
       <c r="C15" s="2"/>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>11</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="8">
         <v>0.5</v>
       </c>
-      <c r="D16" s="15" t="n">
+      <c r="D16" s="15">
         <v>0.5</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="n">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
         <v>12</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="15" t="n">
+      <c r="C17" s="15">
         <v>0.5</v>
       </c>
-      <c r="D17" s="15" t="n">
+      <c r="D17" s="15">
         <v>0.5</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="n">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
         <v>13</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="15" t="n">
+      <c r="C18" s="15">
         <v>0.5</v>
       </c>
-      <c r="D18" s="15" t="n">
+      <c r="D18" s="15">
         <v>0.5</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>14</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="15" t="n">
+      <c r="C19" s="15">
         <v>0.5</v>
       </c>
-      <c r="D19" s="15" t="n">
+      <c r="D19" s="15">
         <v>0.5</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -900,64 +1160,64 @@
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="n">
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
         <v>15</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="15" t="n">
+      <c r="C21" s="15">
         <v>0.5</v>
       </c>
-      <c r="D21" s="15" t="n">
+      <c r="D21" s="15">
         <v>0.25</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="n">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
         <v>16</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="15" t="n">
+      <c r="C22" s="15">
         <v>1</v>
       </c>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="n">
+    <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
         <v>17</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="15" t="n">
+      <c r="C23" s="15">
         <v>5</v>
       </c>
-      <c r="D23" s="15" t="n">
+      <c r="D23" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="n">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
         <v>18</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="15" t="n">
+      <c r="C24" s="15">
         <v>5</v>
       </c>
-      <c r="D24" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D24" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="17" t="s">
         <v>26</v>
@@ -965,113 +1225,113 @@
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="n">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
         <v>19</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="15" t="n">
+      <c r="C26" s="15">
         <v>0.5</v>
       </c>
-      <c r="D26" s="15" t="n">
+      <c r="D26" s="15">
         <v>0.25</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="n">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>20</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="15" t="n">
+      <c r="C27" s="15">
         <v>2</v>
       </c>
-      <c r="D27" s="15" t="n">
+      <c r="D27" s="15">
         <v>0</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="n">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
         <v>21</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="15" t="n">
+      <c r="C28" s="15">
         <v>1</v>
       </c>
       <c r="D28" s="15"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="n">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>22</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="15" t="n">
+      <c r="C29" s="15">
         <v>1.5</v>
       </c>
       <c r="D29" s="15"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15" t="n">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
         <v>23</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="15" t="n">
+      <c r="C30" s="15">
         <v>2</v>
       </c>
       <c r="D30" s="15"/>
     </row>
-    <row r="31" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="n">
+    <row r="31" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>24</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="15" t="n">
+      <c r="C31" s="15">
         <v>0</v>
       </c>
       <c r="D31" s="15"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15" t="n">
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
         <v>25</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="15" t="n">
+      <c r="C32" s="15">
         <v>1.5</v>
       </c>
       <c r="D32" s="15"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="n">
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
         <v>26</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="15" t="n">
+      <c r="C33" s="15">
         <v>1.5</v>
       </c>
       <c r="D33" s="15"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="17" t="s">
         <v>34</v>
@@ -1079,72 +1339,72 @@
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="n">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
         <v>27</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="15" t="n">
+      <c r="C35" s="15">
         <v>0.5</v>
       </c>
-      <c r="D35" s="15" t="n">
+      <c r="D35" s="15">
         <v>0.25</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="n">
+    <row r="36" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
         <v>28</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="15" t="n">
+      <c r="C36" s="15">
         <v>1</v>
       </c>
       <c r="D36" s="15"/>
     </row>
-    <row r="37" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="n">
+    <row r="37" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
         <v>29</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="15" t="n">
+      <c r="C37" s="15">
         <v>1.5</v>
       </c>
       <c r="D37" s="15"/>
     </row>
-    <row r="38" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="n">
+    <row r="38" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
         <v>30</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="15" t="n">
+      <c r="C38" s="15">
         <v>1.5</v>
       </c>
       <c r="D38" s="15"/>
     </row>
-    <row r="39" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15" t="n">
+    <row r="39" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
         <v>31</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="15" t="n">
+      <c r="C39" s="15">
         <v>1</v>
       </c>
       <c r="D39" s="15"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
         <v>39</v>
@@ -1152,8 +1412,8 @@
       <c r="C40" s="2"/>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="n">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
         <v>32</v>
       </c>
       <c r="B41" s="18" t="s">
@@ -1162,64 +1422,64 @@
       <c r="C41" s="8"/>
       <c r="D41" s="15"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="n">
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
         <v>33</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="8" t="n">
+      <c r="C42" s="8">
         <v>0.5</v>
       </c>
-      <c r="D42" s="15" t="n">
+      <c r="D42" s="15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="n">
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
         <v>34</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="8" t="n">
+      <c r="C43" s="8">
         <v>0.5</v>
       </c>
-      <c r="D43" s="15" t="n">
+      <c r="D43" s="15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="n">
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
         <v>35</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="8" t="n">
+      <c r="C44" s="8">
         <v>0.5</v>
       </c>
-      <c r="D44" s="15" t="n">
+      <c r="D44" s="15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="20" t="n">
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="20">
         <v>36</v>
       </c>
       <c r="B45" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="20" t="n">
+      <c r="C45" s="20">
         <v>4.5</v>
       </c>
-      <c r="D45" s="15" t="n">
+      <c r="D45" s="15">
         <v>0</v>
       </c>
       <c r="E45" s="21"/>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
         <v>45</v>
@@ -1227,49 +1487,49 @@
       <c r="C46" s="2"/>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="n">
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
         <v>37</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D47" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="n">
+      <c r="C47" s="8">
+        <v>3</v>
+      </c>
+      <c r="D47" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
         <v>38</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D48" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="n">
+      <c r="C48" s="8">
+        <v>3</v>
+      </c>
+      <c r="D48" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
         <v>39</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="8" t="n">
+      <c r="C49" s="8">
         <v>4</v>
       </c>
-      <c r="D49" s="8" t="n">
+      <c r="D49" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
         <v>49</v>
@@ -1277,200 +1537,195 @@
       <c r="C50" s="2"/>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="n">
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
         <v>40</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D51" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="0" t="s">
+      <c r="C51" s="10">
+        <v>3</v>
+      </c>
+      <c r="D51" s="8">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="n">
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
         <v>41</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D52" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E52" s="0" t="s">
+      <c r="C52" s="10">
+        <v>3</v>
+      </c>
+      <c r="D52" s="8">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="n">
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
         <v>42</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D53" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E53" s="0" t="s">
+      <c r="C53" s="10">
+        <v>3</v>
+      </c>
+      <c r="D53" s="8">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="n">
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
         <v>43</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="0" t="s">
+      <c r="C54" s="10">
+        <v>1</v>
+      </c>
+      <c r="D54" s="8">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="n">
+    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
         <v>44</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="23" t="n">
+      <c r="C55" s="22">
         <v>2</v>
       </c>
-      <c r="D55" s="8" t="n">
+      <c r="D55" s="8">
         <v>0</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10" t="n">
+    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
         <v>45</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="8" t="n">
+      <c r="C56" s="8">
         <v>2</v>
       </c>
-      <c r="D56" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="0" t="s">
+      <c r="D56" s="8">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="n">
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
         <v>46</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E57" s="0" t="s">
+      <c r="C57" s="8">
+        <v>1</v>
+      </c>
+      <c r="D57" s="8">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="n">
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
         <v>47</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E58" s="0" t="s">
+      <c r="C58" s="8">
+        <v>1</v>
+      </c>
+      <c r="D58" s="8">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="n">
+    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
         <v>48</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="0" t="s">
+      <c r="C59" s="8">
+        <v>1</v>
+      </c>
+      <c r="D59" s="8">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="n">
+    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
         <v>49</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="8" t="n">
+      <c r="C60" s="8">
         <v>2</v>
       </c>
-      <c r="D60" s="8" t="n">
+      <c r="D60" s="8">
         <v>2</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10" t="n">
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
         <v>50</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="0" t="s">
+      <c r="C61" s="8">
+        <v>1</v>
+      </c>
+      <c r="D61" s="8">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>